--- a/biology/Écologie/Charles_Sauvage/Charles_Sauvage.xlsx
+++ b/biology/Écologie/Charles_Sauvage/Charles_Sauvage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Philippe Félix Sauvage, né le 14 août 1909 à Dijon, mort le 13 juin 1980 à Saint-Gély-du-Fesc[1] (Hérault), est un botaniste et écologue français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Philippe Félix Sauvage, né le 14 août 1909 à Dijon, mort le 13 juin 1980 à Saint-Gély-du-Fesc (Hérault), est un botaniste et écologue français.
 </t>
         </is>
       </c>
@@ -511,17 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ancien élève de l'École normale supérieure (promotion 1930)[2], il obtient l'agrégation de sciences naturelles en 1934[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ancien élève de l'École normale supérieure (promotion 1930), il obtient l'agrégation de sciences naturelles en 1934.
 Il a enseigné à la Faculté des Sciences qui fait actuellement partie de l'Université Mohamed V - Agdal de Rabat (Maroc) et a été chercheur à l'Institut scientifique chérifien (Maroc) avant de rejoindre un poste de maître de conférences puis de professeur à l'université Montpellier II (USTL) dont fait partie l'Institut de botanique (France). Il est le fils spirituel du professeur Louis Emberger.
-L'universitaire
-Charles Sauvage dirige l'Institut scientifique de Rabat (1960-1962). Chef du laboratoire de phanérogamie à l'Institut scientifique chérifien à Rabat (Maroc), il soutient sa thèse le 21 mai 1960 à la Faculté des Sciences de Montpellier pour obtenir le grade de Docteur es sciences naturelles. 1re thèse : "Recherches géobotaniques sur les subéraies marocaines" ; 2e thèse : "Propositions données par la Faculté". La Commission d'examen était constituée de MM. P. Mathias, Doyen, Président, L. Emberger, J. Trochain et J. Avias, Assesseurs.
-Fervent défenseur de la collecte d'informations sur le terrain, il enseigne au département d'écologie végétale de l'institut chérifien de Rabat[4].
-Il préside la thèse de Simone Grand-Darius, Contribution à l'étude préliminaire sur la biologie, la systématique et l'écologie des macrobrachium (Palaemoninae) de Tahiti[5].
-Le botaniste et écologue
-Son herbier, qui a été intégré à  l'herbier Dubalen, se trouve au musée Despiau-Wlérick à Mont-de-Marsan. Selon le Conservatoire botanique national sud-Atlantique, cet ensemble d'environ 10 000 planchess du XIXe siècle inclut des phanérogames et des algues des Pyrénées-Atlantiques, du sud de la France et de l'Algérie[6].
-Charles Sauvage a aussi récolté de nombreuses plantes du Maroc, de Nouvelle-Calédonie et de la Réunion[7].
 </t>
         </is>
       </c>
@@ -547,14 +554,93 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>L'universitaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Sauvage dirige l'Institut scientifique de Rabat (1960-1962). Chef du laboratoire de phanérogamie à l'Institut scientifique chérifien à Rabat (Maroc), il soutient sa thèse le 21 mai 1960 à la Faculté des Sciences de Montpellier pour obtenir le grade de Docteur es sciences naturelles. 1re thèse : "Recherches géobotaniques sur les subéraies marocaines" ; 2e thèse : "Propositions données par la Faculté". La Commission d'examen était constituée de MM. P. Mathias, Doyen, Président, L. Emberger, J. Trochain et J. Avias, Assesseurs.
+Fervent défenseur de la collecte d'informations sur le terrain, il enseigne au département d'écologie végétale de l'institut chérifien de Rabat.
+Il préside la thèse de Simone Grand-Darius, Contribution à l'étude préliminaire sur la biologie, la systématique et l'écologie des macrobrachium (Palaemoninae) de Tahiti.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Charles_Sauvage</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Sauvage</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Le botaniste et écologue</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son herbier, qui a été intégré à  l'herbier Dubalen, se trouve au musée Despiau-Wlérick à Mont-de-Marsan. Selon le Conservatoire botanique national sud-Atlantique, cet ensemble d'environ 10 000 planchess du XIXe siècle inclut des phanérogames et des algues des Pyrénées-Atlantiques, du sud de la France et de l'Algérie.
+Charles Sauvage a aussi récolté de nombreuses plantes du Maroc, de Nouvelle-Calédonie et de la Réunion.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Charles_Sauvage</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Écologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_Sauvage</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[1961] Recherches géobotaniques sur les subéraies marocaines, Rabat, Institut Scientifique Chérifien, coll. « Travaux de l'Institut », 1961, 462 p., 21 fig., 10 cartes et 2 diagrammes en pochette (présentation en ligne).
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Recherches géobotaniques sur les subéraies marocaines, Rabat, Institut Scientifique Chérifien, coll. « Travaux de l'Institut », 1961, 462 p., 21 fig., 10 cartes et 2 diagrammes en pochette (présentation en ligne).
 [Maurer &amp; Sauvage 1965] Gérard Maurer et Charles Sauvage, Excursion botanique au Maroc: 8-21 Mai 1965, Université de Montpellier, Faculté des sciences, 1965, 200 p..
-[1965] « Taxinomie ou taxonomie », Bulletin de la Société Botanique de France, vol. 112, nos 3-4,‎ 1965, p. 180-182 (DOI 10.1080/00378941.1965.10838227, lire en ligne [PDF] sur tandfonline.com, consulté en septembre 2021).
+ « Taxinomie ou taxonomie », Bulletin de la Société Botanique de France, vol. 112, nos 3-4,‎ 1965, p. 180-182 (DOI 10.1080/00378941.1965.10838227, lire en ligne [PDF] sur tandfonline.com, consulté en septembre 2021).
 Gérard Maurer et Charles Sauvage, « Excursion botanique au Maroc : 8-21 mai 1965 », Al Awamia, no 41,‎ octobre 1971, p. 104-214 (lire en ligne [PDF], consulté en septembre 2021).
 [Raynaud &amp; Sauvage 1974/1975/1978] Christian Raynaud et Charles Sauvage, Catalogue des végétaux vasculaires de Talassemtane (Rif occidental) (ouvrage en 3 parties), 1974, 1975 et 1978.</t>
         </is>
